--- a/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
+++ b/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
+++ b/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
@@ -95,7 +95,7 @@
     <t>Chefe/Beneficiário Solicita o detalhamento de uma diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, extratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes).</t>
+    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, extratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes). Apresenta o numero do empenho e a autorização de pagamento como links.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>

--- a/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
+++ b/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
@@ -95,7 +95,7 @@
     <t>Chefe/Beneficiário Solicita o detalhamento de uma diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, extratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes). Apresenta o numero do empenho e a autorização de pagamento como links.</t>
+    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, extratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes). Apresenta o numero do empenho e a autorização de pagamento como links. Apresenta, no detalhamento das diárias, a justificativa concatenada com o detalhe.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>

--- a/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
+++ b/output/xlsx/UC004 - Detalhar Diárias--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela de listagem de diárias</t>
+    <t>O usuário devidamente autenticado e na tela de listagem de diárias.</t>
   </si>
   <si>
     <t>#</t>
@@ -95,7 +95,7 @@
     <t>Chefe/Beneficiário Solicita o detalhamento de uma diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, extratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes). Apresenta o numero do empenho e a autorização de pagamento como links. Apresenta, no detalhamento das diárias, a justificativa concatenada com o detalhe.</t>
+    <t>SYSTEM Apresenta a tela com as informações da diária do servidor (dados gerais da diária, estratificação do cálculo da diária, conta para crédito, período da viagem, histórico de tramitação, detalhamento de empenho e pagamento, prestação de contas e seus detalhes). Apresenta o número do empenho e a autorização de pagamento como links. Apresenta, no detalhamento das diárias, a justificativa concatenada com o detalhe.</t>
   </si>
   <si>
     <t xml:space="preserve">Postcondition: </t>
